--- a/belluno_corretto_v2.xlsx
+++ b/belluno_corretto_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriele/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E404045-9F19-4B46-8486-63C8A699A14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907FE46-A6BB-4441-8E80-316A3AB763C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4213,7 +4213,7 @@
   <dimension ref="A1:I1440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1301" sqref="F1301:G1301"/>
+      <selection activeCell="F1446" sqref="F1446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41933,10 +41933,10 @@
         <v>232</v>
       </c>
       <c r="D1301">
-        <v>46.044676000000003</v>
+        <v>46</v>
       </c>
       <c r="E1301">
-        <v>12.017388</v>
+        <v>12.07179</v>
       </c>
       <c r="F1301" t="s">
         <v>1143</v>

--- a/belluno_corretto_v2.xlsx
+++ b/belluno_corretto_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriele/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907FE46-A6BB-4441-8E80-316A3AB763C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C827F0C2-981B-364E-8293-4BAF47678A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41933,10 +41933,10 @@
         <v>232</v>
       </c>
       <c r="D1301">
-        <v>46</v>
+        <v>46.140969675074302</v>
       </c>
       <c r="E1301">
-        <v>12.07179</v>
+        <v>12.071667568735</v>
       </c>
       <c r="F1301" t="s">
         <v>1143</v>
